--- a/testdata/SampleTestData.xlsx
+++ b/testdata/SampleTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -25,6 +25,12 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>Joe</t>
   </si>
   <si>
@@ -34,13 +40,19 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Smith</t>
+    <t>johndoe</t>
+  </si>
+  <si>
+    <t>john123</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>janedoe</t>
+  </si>
+  <si>
+    <t>jane234</t>
   </si>
 </sst>
 </file>
@@ -50,8 +62,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -66,6 +78,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,40 +110,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,75 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +234,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,13 +372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,19 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,127 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +437,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -436,26 +457,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +477,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -490,17 +506,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,130 +548,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="17.2857142857143" customWidth="1"/>
@@ -1003,7 +1015,7 @@
     <col min="4" max="4" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,27 +1025,45 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/SampleTestData.xlsx
+++ b/testdata/SampleTestData.xlsx
@@ -4,13 +4,45 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7560"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="AddEmployee" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>crist</author>
+  </authors>
+  <commentList>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>crist:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,12 +92,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +114,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +144,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -119,54 +175,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +205,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,11 +257,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -234,6 +277,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -246,61 +319,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,109 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,8 +489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,17 +525,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,11 +553,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,130 +591,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="17.2857142857143" customWidth="1"/>
@@ -1066,8 +1109,12 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="11:11">
+      <c r="K13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>